--- a/tabular/eve/ecv-refseqs-side-data.xlsx
+++ b/tabular/eve/ecv-refseqs-side-data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>Circovirus</t>
   </si>
@@ -271,6 +271,24 @@
   </si>
   <si>
     <t>Endogenous circoviral element cress.9-conus consensus sequence</t>
+  </si>
+  <si>
+    <t>REF_ECV_Taenia</t>
+  </si>
+  <si>
+    <t>ecv-circo.14-tinamou-con</t>
+  </si>
+  <si>
+    <t>REF_ECV_Tinamou</t>
+  </si>
+  <si>
+    <t>ecv-cress.10-taenia-con</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element circo.14-tinamou consensus sequence</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element cress.10-taenia consensus sequence</t>
   </si>
 </sst>
 </file>
@@ -354,7 +372,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="408">
+  <cellStyleXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -554,6 +572,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,7 +798,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="408">
+  <cellStyles count="418">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -979,6 +1007,11 @@
     <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1178,6 +1211,11 @@
     <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1515,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D12" sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2010,26 +2048,26 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -2049,16 +2087,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -2068,7 +2106,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2088,16 +2126,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -2107,7 +2145,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2127,16 +2165,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -2146,7 +2184,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2166,16 +2204,16 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -2185,7 +2223,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -2205,16 +2243,16 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -2224,7 +2262,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -2244,16 +2282,16 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
@@ -2263,7 +2301,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -2283,16 +2321,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -2302,7 +2340,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -2322,26 +2360,26 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -2361,22 +2399,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
@@ -2399,11 +2437,86 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>9</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:M17">

--- a/tabular/eve/ecv-refseqs-side-data.xlsx
+++ b/tabular/eve/ecv-refseqs-side-data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF5EC57-0A48-AC4D-9C6F-558E5C8CAFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3800" windowWidth="36380" windowHeight="20160" tabRatio="500"/>
+    <workbookView xWindow="7560" yWindow="3800" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -294,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1552,14 +1558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:M24"/>
+      <selection activeCell="D13" sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="2" customWidth="1"/>
@@ -1574,7 +1580,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
@@ -2124,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
@@ -2163,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
@@ -2202,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>79</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>7</v>
@@ -2241,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>7</v>
@@ -2280,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>7</v>
@@ -2319,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>7</v>
@@ -2358,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>7</v>
@@ -2397,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>7</v>
@@ -2475,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>88</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>7</v>
@@ -2514,12 +2520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M17">
     <sortCondition ref="F2:F17"/>
     <sortCondition ref="H2:H17"/>
   </sortState>

--- a/tabular/eve/ecv-refseqs-side-data.xlsx
+++ b/tabular/eve/ecv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF5EC57-0A48-AC4D-9C6F-558E5C8CAFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259099DD-45E6-FB48-B0BD-D49E6CC1F4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3800" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>Circovirus</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>Endogenous circoviral element cress.10-taenia consensus sequence</t>
+  </si>
+  <si>
+    <t>ecv-circo.10-acanthochromis-con</t>
+  </si>
+  <si>
+    <t>ecv-circo.9-sinocyclocheilus-con</t>
+  </si>
+  <si>
+    <t>ecv-circo.15-canarypoxvirus</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element circo.10-acanthochromis-con</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element circo.9-sinocyclocheilus-con</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element circo.15-canarypoxvirus</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:M24"/>
+      <selection activeCell="D25" sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2521,8 +2539,109 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M17">
